--- a/teaching/2020Spring/7172/paper schedule.xlsx
+++ b/teaching/2020Spring/7172/paper schedule.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksuo/OneDrive - Kennesaw State University/CS7172/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksuo/Google Drive/github/kevinsuo.github.io/teaching/2020Spring/7172/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{2EABE366-4A14-7C47-BF13-F239C765C2FB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E1FCB7C2-EA35-8145-BBE9-4042E5A7F905}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E65647-F7BF-B441-B0A7-516F26D575E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4640" yWindow="2340" windowWidth="28040" windowHeight="17440" xr2:uid="{B1A8661F-ADFE-A746-8196-9A5062102BCC}"/>
+    <workbookView xWindow="3240" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{B1A8661F-ADFE-A746-8196-9A5062102BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -529,7 +529,7 @@
   <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/teaching/2020Spring/7172/paper schedule.xlsx
+++ b/teaching/2020Spring/7172/paper schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ksuo/Google Drive/github/kevinsuo.github.io/teaching/2020Spring/7172/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5E65647-F7BF-B441-B0A7-516F26D575E2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2846626A-6356-A545-B3F0-A77913834D42}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3240" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{B1A8661F-ADFE-A746-8196-9A5062102BCC}"/>
+    <workbookView xWindow="940" yWindow="460" windowWidth="32660" windowHeight="20540" xr2:uid="{B1A8661F-ADFE-A746-8196-9A5062102BCC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD132B9-19FE-114C-869B-425BE878410F}">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="173" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
